--- a/organisation/orgPayload.xlsx
+++ b/organisation/orgPayload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,54 +434,57 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>organisationName</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>accountId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>json</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>OrgID</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>SUHAAS</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Samsung</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>64eb363d00026d3e65056dcf</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2673582071', 'organisationName': 'Samsung', 'accountId': '64eb363d00026d3e65056dcf', 'website': 'www.Samsung.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408136967,
@@ -501,23 +504,26 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>LG</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>64eb363f00026d3e65056dd0</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7978996242', 'organisationName': 'LG', 'accountId': '64eb363f00026d3e65056dd0', 'website': 'www.LG.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408137281,
@@ -537,23 +543,26 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>G998U</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>64eb364000026d3e65056dd1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7753438416', 'organisationName': 'G998U', 'accountId': '64eb364000026d3e65056dd1', 'website': 'www.G998U.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408138136,
@@ -573,23 +582,26 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Walmart</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>64eb364100026d3e65056dd2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5279188001', 'organisationName': 'Walmart', 'accountId': '64eb364100026d3e65056dd2', 'website': 'www.Walmart.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408138861,
@@ -609,23 +621,26 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Amazon</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>64eb364200026d3e65056dd3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2879777265', 'organisationName': 'Amazon', 'accountId': '64eb364200026d3e65056dd3', 'website': 'www.Amazon.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408139277,
@@ -645,23 +660,26 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Sony</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>64eb364300026d3e65056dd4</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6567815693', 'organisationName': 'Sony', 'accountId': '64eb364300026d3e65056dd4', 'website': 'www.Sony.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408139664,
@@ -681,23 +699,26 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Best Buy</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>64eb364400026d3e65056dd5</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5448050822', 'organisationName': 'Best Buy', 'accountId': '64eb364400026d3e65056dd5', 'website': 'www.BestBuy.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408139988,
@@ -717,23 +738,26 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Hisense</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>64eb364500026d3e65056dd6</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3380044757', 'organisationName': 'Hisense', 'accountId': '64eb364500026d3e65056dd6', 'website': 'www.Hisense.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408140307,
@@ -753,23 +777,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>ADTH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>64eb364600026d3e65056dd7</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6288615110', 'organisationName': 'ADTH', 'accountId': '64eb364600026d3e65056dd7', 'website': 'www.ADTH.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408140782,
@@ -789,23 +816,26 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>64eb364700026d3e65056dd8</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6684349510', 'organisationName': 'Google', 'accountId': '64eb364700026d3e65056dd8', 'website': 'www.Google.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408141020,
@@ -825,23 +855,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>FreeWheel</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>64eb364800026d3e65056dd9</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7442594625', 'organisationName': 'FreeWheel', 'accountId': '64eb364800026d3e65056dd9', 'website': 'www.FreeWheel.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408141481,
@@ -861,23 +894,26 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Salesforce</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>64eb364900026d3e65056dda</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7824009255', 'organisationName': 'Salesforce', 'accountId': '64eb364900026d3e65056dda', 'website': 'www.Salesforce.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408142020,
@@ -897,23 +933,26 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Comcast Technology Solutions</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>64eb364b00026d3e65056ddb</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8795820203', 'organisationName': 'Comcast Technology Solutions', 'accountId': '64eb364b00026d3e65056ddb', 'website': 'www.ComcastTechnologySolutions.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408142575,
@@ -933,23 +972,26 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Home Assistance</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>64eb364c00026d3e65056ddc</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2402527533', 'organisationName': 'Home Assistance', 'accountId': '64eb364c00026d3e65056ddc', 'website': 'www.HomeAssistance.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408142905,
@@ -969,23 +1011,26 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Vizio</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>64eb364d00026d3e65056ddd</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1486806866', 'organisationName': 'Vizio', 'accountId': '64eb364d00026d3e65056ddd', 'website': 'www.Vizio.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408143239,
@@ -1005,23 +1050,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
         <is>
           <t>HCL Software</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>64eb364e00026d3e65056dde</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9118920888', 'organisationName': 'HCL Software', 'accountId': '64eb364e00026d3e65056dde', 'website': 'www.HCLSoftware.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408143518,
@@ -1041,23 +1089,26 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>64eb364f00026d3e65056ddf</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8959023835', 'organisationName': 'Philips', 'accountId': '64eb364f00026d3e65056ddf', 'website': 'www.Philips.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408143873,
@@ -1077,23 +1128,26 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
         <is>
           <t>TP-Link</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>64eb365000026d3e65056de0</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9730398963', 'organisationName': 'TP-Link', 'accountId': '64eb365000026d3e65056de0', 'website': 'www.TP-Link.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408144119,
@@ -1113,23 +1167,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Roku</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>64eb365100026d3e65056de1</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2244150619', 'organisationName': 'Roku', 'accountId': '64eb365100026d3e65056de1', 'website': 'www.Roku.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408144536,
@@ -1149,23 +1206,26 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Ring</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>64eb365300026d3e65056de2</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3908523634', 'organisationName': 'Ring', 'accountId': '64eb365300026d3e65056de2', 'website': 'www.Ring.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408145097,
@@ -1185,23 +1245,26 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
         <is>
           <t>IKEA</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>64eb365400026d3e65056de3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5733061976', 'organisationName': 'IKEA', 'accountId': '64eb365400026d3e65056de3', 'website': 'www.IKEA.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408145607,
@@ -1221,23 +1284,26 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Honeywell</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>64eb365500026d3e65056de4</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9318128861', 'organisationName': 'Honeywell', 'accountId': '64eb365500026d3e65056de4', 'website': 'www.Honeywell.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408146138,
@@ -1257,23 +1323,26 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Nest Developers</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>64eb365600026d3e65056de5</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5030300536', 'organisationName': 'Nest Developers', 'accountId': '64eb365600026d3e65056de5', 'website': 'www.NestDevelopers.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408146738,
@@ -1293,23 +1362,26 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>64eb365700026d3e65056de6</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3144497370', 'organisationName': 'Spotify', 'accountId': '64eb365700026d3e65056de6', 'website': 'www.Spotify.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408147698,
@@ -1329,23 +1401,26 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Apple</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>64eb365800026d3e65056de7</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9767373463', 'organisationName': 'Apple', 'accountId': '64eb365800026d3e65056de7', 'website': 'www.Apple.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408148494,
@@ -1365,23 +1440,26 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Somethings Brewing</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>64eb365900026d3e65056de8</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9585570077', 'organisationName': 'Somethings Brewing', 'accountId': '64eb365900026d3e65056de8', 'website': 'www.SomethingsBrewing.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408148824,
@@ -1401,23 +1479,26 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Siemens</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>64eb365b00026d3e65056de9</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3548277944', 'organisationName': 'Siemens', 'accountId': '64eb365b00026d3e65056de9', 'website': 'www.Siemens.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408149204,
@@ -1437,23 +1518,26 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Electrolux</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>64eb365c00026d3e65056dea</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3774539087', 'organisationName': 'Electrolux', 'accountId': '64eb365c00026d3e65056dea', 'website': 'www.Electrolux.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408149787,
@@ -1473,23 +1557,26 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Hunter Fan Company</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>64eb365d00026d3e65056deb</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8040774220', 'organisationName': 'Hunter Fan Company', 'accountId': '64eb365d00026d3e65056deb', 'website': 'www.HunterFanCompany.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408150121,
@@ -1509,23 +1596,26 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Fanimation</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>64eb365f00026d3e65056dec</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5177904851', 'organisationName': 'Fanimation', 'accountId': '64eb365f00026d3e65056dec', 'website': 'www.Fanimation.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408150357,
@@ -1545,23 +1635,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
         <is>
           <t>TURBRO</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>64eb366100026d3e65056ded</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7101889439', 'organisationName': 'TURBRO', 'accountId': '64eb366100026d3e65056ded', 'website': 'www.TURBRO.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408150779,
@@ -1581,23 +1674,26 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Ecobee</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>64eb366200026d3e65056dee</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2960376990', 'organisationName': 'Ecobee', 'accountId': '64eb366200026d3e65056dee', 'website': 'www.Ecobee.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408151409,
@@ -1617,23 +1713,26 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Midea</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>64eb366300026d3e65056def</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3253134247', 'organisationName': 'Midea', 'accountId': '64eb366300026d3e65056def', 'website': 'www.Midea.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408151997,
@@ -1653,23 +1752,26 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Emerson</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>64eb366400026d3e65056df0</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2723806752', 'organisationName': 'Emerson', 'accountId': '64eb366400026d3e65056df0', 'website': 'www.Emerson.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408152455,
@@ -1689,23 +1791,26 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Dyson</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>64eb366500026d3e65056df1</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2671962509', 'organisationName': 'Dyson', 'accountId': '64eb366500026d3e65056df1', 'website': 'www.Dyson.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408153333,
@@ -1725,23 +1830,26 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Johnson Controls</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>64eb366600026d3e65056df2</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9666664711', 'organisationName': 'Johnson Controls', 'accountId': '64eb366600026d3e65056df2', 'website': 'www.JohnsonControls.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408153842,
@@ -1761,23 +1869,26 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Bosch</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>64eb366700026d3e65056df3</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5337192045', 'organisationName': 'Bosch', 'accountId': '64eb366700026d3e65056df3', 'website': 'www.Bosch.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408154222,
@@ -1797,23 +1908,26 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Xiaomi</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>64eb366900026d3e65056df4</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4380234895', 'organisationName': 'Xiaomi', 'accountId': '64eb366900026d3e65056df4', 'website': 'www.Xiaomi.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408155055,
@@ -1833,23 +1947,26 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
         <is>
           <t>KAFF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>64eb366a00026d3e65056df5</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4415680553', 'organisationName': 'KAFF', 'accountId': '64eb366a00026d3e65056df5', 'website': 'www.KAFF.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408155393,
@@ -1869,23 +1986,26 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Hive</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>64eb366b00026d3e65056df6</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6865689160', 'organisationName': 'Hive', 'accountId': '64eb366b00026d3e65056df6', 'website': 'www.Hive.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408155741,
@@ -1905,23 +2025,26 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Yale</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>64eb366c00026d3e65056df7</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6837267921', 'organisationName': 'Yale', 'accountId': '64eb366c00026d3e65056df7', 'website': 'www.Yale.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408156075,
@@ -1941,23 +2064,26 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
         <is>
           <t>VIZiD</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>64eb366d00026d3e65056df8</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5027199726', 'organisationName': 'VIZiD', 'accountId': '64eb366d00026d3e65056df8', 'website': 'www.VIZiD.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408156370,
@@ -1977,23 +2103,26 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Morphy Richards</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>64eb366e00026d3e65056df9</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1774088136', 'organisationName': 'Morphy Richards', 'accountId': '64eb366e00026d3e65056df9', 'website': 'www.MorphyRichards.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408157010,
@@ -2013,23 +2142,26 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Sierra</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>64eb366f00026d3e65056dfa</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1148926269', 'organisationName': 'Sierra', 'accountId': '64eb366f00026d3e65056dfa', 'website': 'www.Sierra.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408157319,
@@ -2049,23 +2181,26 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
         <is>
           <t>VOCOlinc</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>64eb367000026d3e65056dfb</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7927511660', 'organisationName': 'VOCOlinc', 'accountId': '64eb367000026d3e65056dfb', 'website': 'www.VOCOlinc.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408157705,
@@ -2085,23 +2220,26 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Orbit</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>64eb367200026d3e65056dfc</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1693546483', 'organisationName': 'Orbit', 'accountId': '64eb367200026d3e65056dfc', 'website': 'www.Orbit.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408158052,
@@ -2121,23 +2259,26 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
         <is>
           <t>TACOVICI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>64eb367300026d3e65056dfd</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9135620201', 'organisationName': 'TACOVICI', 'accountId': '64eb367300026d3e65056dfd', 'website': 'www.TACOVICI.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408158546,
@@ -2157,23 +2298,26 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>64eb367400026d3e65056dfe</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3277277148', 'organisationName': 'IBM', 'accountId': '64eb367400026d3e65056dfe', 'website': 'www.IBM.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408159251,
@@ -2193,23 +2337,26 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Netatmo</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>64eb367500026d3e65056dff</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9136774098', 'organisationName': 'Netatmo', 'accountId': '64eb367500026d3e65056dff', 'website': 'www.Netatmo.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408159488,
@@ -2229,23 +2376,26 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Hilo</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>64eb367600026d3e65056e00</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1944960901', 'organisationName': 'Hilo', 'accountId': '64eb367600026d3e65056e00', 'website': 'www.Hilo.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408159850,
@@ -2265,23 +2415,26 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
         <is>
           <t>HOROW</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>64eb367700026d3e65056e01</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1701675187', 'organisationName': 'HOROW', 'accountId': '64eb367700026d3e65056e01', 'website': 'www.HOROW.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408160470,
@@ -2301,23 +2454,26 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Kohler</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>64eb367800026d3e65056e02</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8169745367', 'organisationName': 'Kohler', 'accountId': '64eb367800026d3e65056e02', 'website': 'www.Kohler.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408162160,
@@ -2337,23 +2493,26 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
         <is>
           <t>SONOS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>64eb367900026d3e65056e03</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2678910806', 'organisationName': 'SONOS', 'accountId': '64eb367900026d3e65056e03', 'website': 'www.SONOS.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408162988,
@@ -2373,23 +2532,26 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Silicon Labs</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>64eb367b00026d3e65056e04</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6544540400', 'organisationName': 'Silicon Labs', 'accountId': '64eb367b00026d3e65056e04', 'website': 'www.SiliconLabs.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408163256,
@@ -2409,23 +2571,26 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Aeotec</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>64eb367c00026d3e65056e05</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9286597538', 'organisationName': 'Aeotec', 'accountId': '64eb367c00026d3e65056e05', 'website': 'www.Aeotec.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408163567,
@@ -2445,23 +2610,26 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Insoma</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>64eb367d00026d3e65056e06</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4066089759', 'organisationName': 'Insoma', 'accountId': '64eb367d00026d3e65056e06', 'website': 'www.Insoma.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408163967,
@@ -2481,23 +2649,26 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Fibaro</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>64eb367e00026d3e65056e07</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8727361728', 'organisationName': 'Fibaro', 'accountId': '64eb367e00026d3e65056e07', 'website': 'www.Fibaro.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408164547,
@@ -2517,27 +2688,30 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>NYC – 311</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Mobius</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>64eb367f00026d3e65056e08</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6408079052', 'organisationName': 'Mobius', 'accountId': '64eb367f00026d3e65056e08', 'website': 'www.Mobius.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408164907,
@@ -2557,23 +2731,26 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
         <is>
           <t>AccuWeather</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>64eb368000026d3e65056e09</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2031827671', 'organisationName': 'AccuWeather', 'accountId': '64eb368000026d3e65056e09', 'website': 'www.AccuWeather.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408165224,
@@ -2593,23 +2770,26 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
         <is>
           <t>The Weather Company</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>64eb368100026d3e65056e0a</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3387595392', 'organisationName': 'The Weather Company', 'accountId': '64eb368100026d3e65056e0a', 'website': 'www.TheWeatherCompany.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408165627,
@@ -2629,23 +2809,26 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
-      <c r="B62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
         <is>
           <t>OpenWeatherMap</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>64eb368200026d3e65056e0b</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2030942449', 'organisationName': 'OpenWeatherMap', 'accountId': '64eb368200026d3e65056e0b', 'website': 'www.OpenWeatherMap.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408165890,
@@ -2665,23 +2848,26 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
-      <c r="B63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
         <is>
           <t>tomorrow.io</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>64eb368300026d3e65056e0c</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6863160163', 'organisationName': 'tomorrow.io', 'accountId': '64eb368300026d3e65056e0c', 'website': 'www.tomorrowio.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408166172,
@@ -2701,23 +2887,26 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
         <is>
           <t>AerisWeather</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>64eb368400026d3e65056e0d</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1985961021', 'organisationName': 'AerisWeather', 'accountId': '64eb368400026d3e65056e0d', 'website': 'www.AerisWeather.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408166541,
@@ -2737,23 +2926,26 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>64eb368500026d3e65056e0e</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7603988590', 'organisationName': 'X', 'accountId': '64eb368500026d3e65056e0e', 'website': 'www.X.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408166792,
@@ -2773,23 +2965,26 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
         <is>
           <t>City of Boston</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>64eb368600026d3e65056e0f</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4397256266', 'organisationName': 'City of Boston', 'accountId': '64eb368600026d3e65056e0f', 'website': 'www.CityofBoston.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408167025,
@@ -2809,23 +3004,26 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Kepler</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>64eb368800026d3e65056e10</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1904642090', 'organisationName': 'Kepler', 'accountId': '64eb368800026d3e65056e10', 'website': 'www.Kepler.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408167304,
@@ -2845,23 +3043,26 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
         <is>
           <t>WHUT - TV</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>64eb368900026d3e65056e11</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6210297030', 'organisationName': 'WHUT - TV', 'accountId': '64eb368900026d3e65056e11', 'website': 'www.WHUT-TV.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408167519,
@@ -2881,23 +3082,26 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
         <is>
           <t>City of Los Angeles</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>64eb368a00026d3e65056e12</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2382402112', 'organisationName': 'City of Los Angeles', 'accountId': '64eb368a00026d3e65056e12', 'website': 'www.CityofLosAngeles.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408167782,
@@ -2917,23 +3121,26 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
         <is>
           <t>nyc.gov</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>64eb368b00026d3e65056e13</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1404223310', 'organisationName': 'nyc.gov', 'accountId': '64eb368b00026d3e65056e13', 'website': 'www.nycgov.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408168031,
@@ -2953,23 +3160,26 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
         <is>
           <t>City and County of San Francisco</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>64eb368c00026d3e65056e14</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5185588951', 'organisationName': 'City and County of San Francisco', 'accountId': '64eb368c00026d3e65056e14', 'website': 'www.CityandCountyofSanFrancisco.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408168530,
@@ -2989,23 +3199,26 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
         <is>
           <t>Leaflet</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>64eb368d00026d3e65056e15</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3269538596', 'organisationName': 'Leaflet', 'accountId': '64eb368d00026d3e65056e15', 'website': 'www.Leaflet.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408168780,
@@ -3025,23 +3238,26 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
         <is>
           <t>Here Maps</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>64eb368e00026d3e65056e16</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2445070647', 'organisationName': 'Here Maps', 'accountId': '64eb368e00026d3e65056e16', 'website': 'www.HereMaps.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408169051,
@@ -3061,23 +3277,26 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
         <is>
           <t>ProPublica Campaign Finance</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>64eb368f00026d3e65056e17</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7191785894', 'organisationName': 'ProPublica Campaign Finance', 'accountId': '64eb368f00026d3e65056e17', 'website': 'www.ProPublicaCampaignFinance.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408169368,
@@ -3097,23 +3316,26 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
         <is>
           <t>City of Chicago</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>64eb369100026d3e65056e18</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2173502483', 'organisationName': 'City of Chicago', 'accountId': '64eb369100026d3e65056e18', 'website': 'www.CityofChicago.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408169711,
@@ -3133,23 +3355,26 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
         <is>
           <t>City of Austin</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>64eb369200026d3e65056e19</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5449046274', 'organisationName': 'City of Austin', 'accountId': '64eb369200026d3e65056e19', 'website': 'www.CityofAustin.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408170404,
@@ -3169,23 +3394,26 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
         <is>
           <t>City of Baltimore</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>64eb369300026d3e65056e1a</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5844178788', 'organisationName': 'City of Baltimore', 'accountId': '64eb369300026d3e65056e1a', 'website': 'www.CityofBaltimore.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408170839,
@@ -3205,23 +3433,26 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
         <is>
           <t>District of Columbia</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>64eb369400026d3e65056e1b</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2398558661', 'organisationName': 'District of Columbia', 'accountId': '64eb369400026d3e65056e1b', 'website': 'www.DistrictofColumbia.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408171138,
@@ -3241,23 +3472,26 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
         <is>
           <t>Miami Dade County</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>64eb369500026d3e65056e1c</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1557207674', 'organisationName': 'Miami Dade County', 'accountId': '64eb369500026d3e65056e1c', 'website': 'www.MiamiDadeCounty.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408172097,
@@ -3277,23 +3511,26 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
         <is>
           <t>City of Philadelphia</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>64eb369600026d3e65056e1d</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3218428513', 'organisationName': 'City of Philadelphia', 'accountId': '64eb369600026d3e65056e1d', 'website': 'www.CityofPhiladelphia.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408173128,
@@ -3313,23 +3550,26 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
         <is>
           <t>City of Dallas</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>64eb369700026d3e65056e1e</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1625287754', 'organisationName': 'City of Dallas', 'accountId': '64eb369700026d3e65056e1e', 'website': 'www.CityofDallas.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408173686,
@@ -3349,23 +3589,26 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Minneapolis</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>64eb369800026d3e65056e1f</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9840635441', 'organisationName': 'Minneapolis', 'accountId': '64eb369800026d3e65056e1f', 'website': 'www.Minneapolis.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408174021,
@@ -3385,23 +3628,26 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
         <is>
           <t>City of New Orleans</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>64eb369900026d3e65056e20</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6282088756', 'organisationName': 'City of New Orleans', 'accountId': '64eb369900026d3e65056e20', 'website': 'www.CityofNewOrleans.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408174433,
@@ -3421,23 +3667,26 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
         <is>
           <t>STYLICIOUS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>64eb369a00026d3e65056e21</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4419348789', 'organisationName': 'STYLICIOUS', 'accountId': '64eb369a00026d3e65056e21', 'website': 'www.STYLICIOUS.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408174694,
@@ -3457,23 +3706,26 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
         <is>
           <t>TrackMe</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>64eb369b00026d3e65056e22</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4166691291', 'organisationName': 'TrackMe', 'accountId': '64eb369b00026d3e65056e22', 'website': 'www.TrackMe.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408174992,
@@ -3493,23 +3745,26 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Motive</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>64eb369d00026d3e65056e23</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7278690425', 'organisationName': 'Motive', 'accountId': '64eb369d00026d3e65056e23', 'website': 'www.Motive.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408175552,
@@ -3529,23 +3784,26 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Samsara</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>64eb369e00026d3e65056e24</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5158898400', 'organisationName': 'Samsara', 'accountId': '64eb369e00026d3e65056e24', 'website': 'www.Samsara.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408176058,
@@ -3565,23 +3823,26 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
         <is>
           <t>Azuga</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>64eb369f00026d3e65056e25</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8679909804', 'organisationName': 'Azuga', 'accountId': '64eb369f00026d3e65056e25', 'website': 'www.Azuga.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408176460,
@@ -3601,23 +3862,26 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
         <is>
           <t>ClearpathGPS</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>64eb36a000026d3e65056e26</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6795345630', 'organisationName': 'ClearpathGPS', 'accountId': '64eb36a000026d3e65056e26', 'website': 'www.ClearpathGPS.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408177126,
@@ -3637,23 +3901,26 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
-      <c r="B90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
         <is>
           <t>Salesforce</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>64eb36a100026d3e65056e27</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9772561882', 'organisationName': 'Salesforce', 'accountId': '64eb36a100026d3e65056e27', 'website': 'www.Salesforce.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408177487,
@@ -3673,23 +3940,26 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr"/>
-      <c r="B91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
         <is>
           <t>MyWakes</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>64eb36a200026d3e65056e28</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4885406117', 'organisationName': 'MyWakes', 'accountId': '64eb36a200026d3e65056e28', 'website': 'www.MyWakes.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408177799,
@@ -3709,27 +3979,30 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>GLOBAL</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>NAGRA</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>64eb36a300026d3e65056e29</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1499212594', 'organisationName': 'NAGRA', 'accountId': '64eb36a300026d3e65056e29', 'website': 'www.NAGRA.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408178178,
@@ -3749,23 +4022,26 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
-      <c r="B93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Here.com</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>64eb36a500026d3e65056e2a</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4623547885', 'organisationName': 'Here.com', 'accountId': '64eb36a500026d3e65056e2a', 'website': 'www.Herecom.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408178477,
@@ -3785,23 +4061,26 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
-      <c r="B94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
         <is>
           <t>TitanTV</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>64eb36a600026d3e65056e2b</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9191441126', 'organisationName': 'TitanTV', 'accountId': '64eb36a600026d3e65056e2b', 'website': 'www.TitanTV.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408178969,
@@ -3821,23 +4100,26 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
-      <c r="B95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Enensys</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>64eb36a700026d3e65056e2c</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9497418095', 'organisationName': 'Enensys', 'accountId': '64eb36a700026d3e65056e2c', 'website': 'www.Enensys.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408179189,
@@ -3857,23 +4139,26 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
-      <c r="B96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
         <is>
           <t>Digicap</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>64eb36a900026d3e65056e2d</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3644882336', 'organisationName': 'Digicap', 'accountId': '64eb36a900026d3e65056e2d', 'website': 'www.Digicap.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408179798,
@@ -3893,23 +4178,26 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
-      <c r="B97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
         <is>
           <t>Spectra Rep</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>64eb36aa00026d3e65056e2e</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3409242334', 'organisationName': 'Spectra Rep', 'accountId': '64eb36aa00026d3e65056e2e', 'website': 'www.SpectraRep.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408180046,
@@ -3929,23 +4217,26 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
-      <c r="B98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
         <is>
           <t>IBM</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>64eb36ab00026d3e65056e2f</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5315300763', 'organisationName': 'IBM', 'accountId': '64eb36ab00026d3e65056e2f', 'website': 'www.IBM.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408180429,
@@ -3965,23 +4256,26 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
-      <c r="B99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Ticketmaster</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>64eb36ac00026d3e65056e30</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4827843119', 'organisationName': 'Ticketmaster', 'accountId': '64eb36ac00026d3e65056e30', 'website': 'www.Ticketmaster.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408180768,
@@ -4001,23 +4295,26 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
-      <c r="B100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
         <is>
           <t>Spotify</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>64eb36ad00026d3e65056e31</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7871861370', 'organisationName': 'Spotify', 'accountId': '64eb36ad00026d3e65056e31', 'website': 'www.Spotify.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408181116,
@@ -4037,23 +4334,26 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
-      <c r="B101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>64eb36ae00026d3e65056e32</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6325174034', 'organisationName': 'HP', 'accountId': '64eb36ae00026d3e65056e32', 'website': 'www.HP.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408181469,
@@ -4073,23 +4373,26 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
-      <c r="B102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
         <is>
           <t>USSI</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>64eb36af00026d3e65056e33</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7306868598', 'organisationName': 'USSI', 'accountId': '64eb36af00026d3e65056e33', 'website': 'www.USSI.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408182028,
@@ -4109,23 +4412,26 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr"/>
-      <c r="B103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
         <is>
           <t>Visa</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>64eb36b000026d3e65056e34</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1294250955', 'organisationName': 'Visa', 'accountId': '64eb36b000026d3e65056e34', 'website': 'www.Visa.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408182308,
@@ -4145,23 +4451,26 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr"/>
-      <c r="B104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
         <is>
           <t>Google</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>64eb36b100026d3e65056e35</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6541141731', 'organisationName': 'Google', 'accountId': '64eb36b100026d3e65056e35', 'website': 'www.Google.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408182511,
@@ -4181,23 +4490,26 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr"/>
-      <c r="B105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
         <is>
           <t>VBox</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>64eb36b300026d3e65056e36</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1776916574', 'organisationName': 'VBox', 'accountId': '64eb36b300026d3e65056e36', 'website': 'www.VBox.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408182780,
@@ -4217,23 +4529,26 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
-      <c r="B106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
         <is>
           <t>Thomson</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>64eb36b400026d3e65056e37</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1648522532', 'organisationName': 'Thomson', 'accountId': '64eb36b400026d3e65056e37', 'website': 'www.Thomson.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408183267,
@@ -4253,23 +4568,26 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr"/>
-      <c r="B107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
         <is>
           <t>Rohde-Schwarz</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>64eb36b500026d3e65056e38</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3728381710', 'organisationName': 'Rohde-Schwarz', 'accountId': '64eb36b500026d3e65056e38', 'website': 'www.Rohde-Schwarz.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408183484,
@@ -4289,23 +4607,26 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
-      <c r="B108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
         <is>
           <t>PMVG</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="D108" t="inlineStr">
         <is>
           <t>64eb36b600026d3e65056e39</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>{'registrationNumber': '9428208631', 'organisationName': 'PMVG', 'accountId': '64eb36b600026d3e65056e39', 'website': 'www.PMVG.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408183731,
@@ -4325,23 +4646,26 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr"/>
-      <c r="B109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
         <is>
           <t>BTS</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>64eb36b700026d3e65056e3a</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8263104937', 'organisationName': 'BTS', 'accountId': '64eb36b700026d3e65056e3a', 'website': 'www.BTS.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408184006,
@@ -4361,23 +4685,26 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
-      <c r="B110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
         <is>
           <t>HPE</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>64eb36b800026d3e65056e3b</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4078286149', 'organisationName': 'HPE', 'accountId': '64eb36b800026d3e65056e3b', 'website': 'www.HPE.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408184234,
@@ -4397,23 +4724,26 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
-      <c r="B111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
         <is>
           <t>Geniatech</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>64eb36b900026d3e65056e3c</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2797936805', 'organisationName': 'Geniatech', 'accountId': '64eb36b900026d3e65056e3c', 'website': 'www.Geniatech.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408184622,
@@ -4433,23 +4763,26 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
-      <c r="B112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
         <is>
           <t>Fincons</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>64eb36ba00026d3e65056e3d</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>{'registrationNumber': '7473568939', 'organisationName': 'Fincons', 'accountId': '64eb36ba00026d3e65056e3d', 'website': 'www.Fincons.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408185039,
@@ -4469,23 +4802,26 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
-      <c r="B113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
         <is>
           <t>DTV</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>64eb36bb00026d3e65056e3e</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3912055140', 'organisationName': 'DTV', 'accountId': '64eb36bb00026d3e65056e3e', 'website': 'www.DTV.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408185281,
@@ -4505,23 +4841,26 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
-      <c r="B114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
         <is>
           <t>SCTE</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>64eb36bc00026d3e65056e3f</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3984530720', 'organisationName': 'SCTE', 'accountId': '64eb36bc00026d3e65056e3f', 'website': 'www.SCTE.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408185524,
@@ -4541,23 +4880,26 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr"/>
-      <c r="B115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>64eb36bd00026d3e65056e40</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8381257668', 'organisationName': 'NAB', 'accountId': '64eb36bd00026d3e65056e40', 'website': 'www.NAB.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408185792,
@@ -4577,23 +4919,26 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
-      <c r="B116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
         <is>
           <t>dektec</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>64eb36be00026d3e65056e41</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1012851995', 'organisationName': 'dektec', 'accountId': '64eb36be00026d3e65056e41', 'website': 'www.dektec.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408186123,
@@ -4613,23 +4958,26 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr"/>
-      <c r="B117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
         <is>
           <t>eurofins</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>64eb36c000026d3e65056e42</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6555597192', 'organisationName': 'eurofins', 'accountId': '64eb36c000026d3e65056e42', 'website': 'www.eurofins.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408186417,
@@ -4649,23 +4997,26 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr"/>
-      <c r="B118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
         <is>
           <t>comark</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>64eb36c100026d3e65056e43</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>{'registrationNumber': '6575646703', 'organisationName': 'comark', 'accountId': '64eb36c100026d3e65056e43', 'website': 'www.comark.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408186709,
@@ -4685,23 +5036,26 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
-      <c r="B119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
         <is>
           <t>americantower</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>64eb36c200026d3e65056e44</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>{'registrationNumber': '1727782635', 'organisationName': 'americantower', 'accountId': '64eb36c200026d3e65056e44', 'website': 'www.americantower.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408186984,
@@ -4721,23 +5075,26 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr"/>
-      <c r="B120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
         <is>
           <t>gatesair</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>64eb36c300026d3e65056e45</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>{'registrationNumber': '4904433149', 'organisationName': 'gatesair', 'accountId': '64eb36c300026d3e65056e45', 'website': 'www.gatesair.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408187509,
@@ -4757,23 +5114,26 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
-      <c r="B121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
         <is>
           <t>sony</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>64eb36c400026d3e65056e46</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>{'registrationNumber': '3448003510', 'organisationName': 'sony', 'accountId': '64eb36c400026d3e65056e46', 'website': 'www.sony.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408187817,
@@ -4793,23 +5153,26 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
-      <c r="B122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
         <is>
           <t>nielsen</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>64eb36c500026d3e65056e47</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2831149277', 'organisationName': 'nielsen', 'accountId': '64eb36c500026d3e65056e47', 'website': 'www.nielsen.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408188240,
@@ -4829,23 +5192,26 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr"/>
-      <c r="B123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
         <is>
           <t>dolby</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>64eb36c600026d3e65056e48</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>{'registrationNumber': '2248506071', 'organisationName': 'dolby', 'accountId': '64eb36c600026d3e65056e48', 'website': 'www.dolby.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408188712,
@@ -4865,23 +5231,26 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
-      <c r="B124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
         <is>
           <t>crowncastle</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>64eb36c700026d3e65056e49</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>{'registrationNumber': '8578664192', 'organisationName': 'crowncastle', 'accountId': '64eb36c700026d3e65056e49', 'website': 'www.crowncastle.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408188918,
@@ -4901,23 +5270,26 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
-      <c r="B125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
         <is>
           <t>ateme</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>64eb36c800026d3e65056e4a</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>{'registrationNumber': '5729574071', 'organisationName': 'ateme', 'accountId': '64eb36c800026d3e65056e4a', 'website': 'www.ateme.com', 'routingNum': '4520005', 'emailId': 'info@gaiansolutions.com'}</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>{
   "timestamp" : 1724408189220,
